--- a/data/input/employee_absence_data_18.xlsx
+++ b/data/input/employee_absence_data_18.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48304</v>
+        <v>60958</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antony Sá</t>
+          <t>Dra. Maria Luísa Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>7138.66</v>
+        <v>4705.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58482</v>
+        <v>48719</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diogo Duarte</t>
+          <t>Caroline Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,32 +511,32 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45095</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>3216.69</v>
+        <v>6666.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59071</v>
+        <v>69099</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gael Henrique Teixeira</t>
+          <t>Yasmin Fonseca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -546,210 +546,210 @@
         <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>12427.7</v>
+        <v>6595.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39442</v>
+        <v>70228</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Stella Barbosa</t>
+          <t>Luiz Gustavo Novaes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>7564.51</v>
+        <v>4163.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88673</v>
+        <v>377</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rhavi Campos</t>
+          <t>Mirella da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45101</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>3000.07</v>
+        <v>2005.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66116</v>
+        <v>51355</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lara Dias</t>
+          <t>Valentim Machado</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>4088.93</v>
+        <v>3735.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94157</v>
+        <v>28171</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pietra Sá</t>
+          <t>Eduardo Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>11477.43</v>
+        <v>5365.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3120</v>
+        <v>11456</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cauê Alves</t>
+          <t>Sr. Diego Aragão</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>4088.11</v>
+        <v>3429.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95011</v>
+        <v>33119</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vinicius Pereira</t>
+          <t>Maria Vitória da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>6483.22</v>
+        <v>6550.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27005</v>
+        <v>1315</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noah Borges</t>
+          <t>João Lucas Cirino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>4866.21</v>
+        <v>2800.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_18.xlsx
+++ b/data/input/employee_absence_data_18.xlsx
@@ -464,69 +464,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60958</v>
+        <v>24731</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Maria Luísa Correia</t>
+          <t>Beatriz Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>4705.31</v>
+        <v>5225.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48719</v>
+        <v>14764</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline Costela</t>
+          <t>Zoe Leão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>6666.29</v>
+        <v>7388.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69099</v>
+        <v>6605</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yasmin Fonseca</t>
+          <t>Letícia Borges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,31 +536,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>6595.34</v>
+        <v>6471.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70228</v>
+        <v>85721</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Novaes</t>
+          <t>Anna Liz Siqueira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,27 +569,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>4163.93</v>
+        <v>2645.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>377</v>
+        <v>70216</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirella da Rosa</t>
+          <t>Maria Júlia da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,143 +598,143 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>2005.19</v>
+        <v>5348.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>51355</v>
+        <v>80740</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valentim Machado</t>
+          <t>Melina Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45106</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>3735.47</v>
+        <v>6682.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28171</v>
+        <v>94788</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduardo Nascimento</t>
+          <t>Dante da Paz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>5365.11</v>
+        <v>4598.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11456</v>
+        <v>53887</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Diego Aragão</t>
+          <t>Thiago Pastor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>3429.58</v>
+        <v>5080.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33119</v>
+        <v>48074</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Vitória da Cunha</t>
+          <t>Marcos Vinicius da Mata</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45105</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>6550.48</v>
+        <v>7853.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1315</v>
+        <v>28371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Lucas Cirino</t>
+          <t>Milena Camargo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -746,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>2800.15</v>
+        <v>2862.47</v>
       </c>
     </row>
   </sheetData>
